--- a/biology/Botanique/Sphenoclea_zeylanica/Sphenoclea_zeylanica.xlsx
+++ b/biology/Botanique/Sphenoclea_zeylanica/Sphenoclea_zeylanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphenoclea zeylanica est une espèce de la famille des Sphenocleaceae.
-Il est couramment appelé chickenspike, gooseweed et wedgewort. Il est originaire d'Afrique, de Madagascar, d'Asie tropicale et subtropicale et d'Australie[1]. 
+Il est couramment appelé chickenspike, gooseweed et wedgewort. Il est originaire d'Afrique, de Madagascar, d'Asie tropicale et subtropicale et d'Australie. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante à fleurs annuelle semi-aquatique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante à fleurs annuelle semi-aquatique.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé comme aliment pour animaux, comme médicament et pour l'alimentation[1]. Ses jeunes feuilles sont comestibles et sont parfois consommées après une légère ébullition[2]. 
-Mauvaise herbe commune des rizières, elle peut entraîner des pertes de rendement de 25 à 50 %[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé comme aliment pour animaux, comme médicament et pour l'alimentation. Ses jeunes feuilles sont comestibles et sont parfois consommées après une légère ébullition. 
+Mauvaise herbe commune des rizières, elle peut entraîner des pertes de rendement de 25 à 50 %.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[4] : Afghanistan, Afrique du Sud, Argentine, Australie, Bangladesh, Birmanie, Bolivie, Botswana, Brésil, Burkina Faso, Burundi, Bénin, Cambodge, Cameroun, Chine, Colombie, Costa Rica, Cuba, Côte d'Ivoire, Gabon, Ghana, Guatemala, Guinée-Bissau, Guinée, Guyana, Guyane, Honduras, Inde, Indonésie, Iran, Kenya, Laos, Madagascar, Malaisie, Mali, Mauritanie, Mexique, Mozambique, Namibie, Nicaragua, Niger, Nigeria, Népal, Ouganda, Pakistan, Panama, Paraguay, Philippines, Pérou, République centrafricaine, Taïwan, République dominicaine, République démocratique du Congo, Sierra Leone, Soudan, Sri Lanka, Suriname, Sénégal, Tanzanie, Tchad, Thaïlande, Togo, Uruguay, Venezuela, Viêt Nam, Zambie, Zimbabwe, Équateur, États-Unis, Éthiopie, Îles Salomon.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Afghanistan, Afrique du Sud, Argentine, Australie, Bangladesh, Birmanie, Bolivie, Botswana, Brésil, Burkina Faso, Burundi, Bénin, Cambodge, Cameroun, Chine, Colombie, Costa Rica, Cuba, Côte d'Ivoire, Gabon, Ghana, Guatemala, Guinée-Bissau, Guinée, Guyana, Guyane, Honduras, Inde, Indonésie, Iran, Kenya, Laos, Madagascar, Malaisie, Mali, Mauritanie, Mexique, Mozambique, Namibie, Nicaragua, Niger, Nigeria, Népal, Ouganda, Pakistan, Panama, Paraguay, Philippines, Pérou, République centrafricaine, Taïwan, République dominicaine, République démocratique du Congo, Sierra Leone, Soudan, Sri Lanka, Suriname, Sénégal, Tanzanie, Tchad, Thaïlande, Togo, Uruguay, Venezuela, Viêt Nam, Zambie, Zimbabwe, Équateur, États-Unis, Éthiopie, Îles Salomon.
 </t>
         </is>
       </c>
@@ -606,11 +624,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Sphenoclea zeylanica Gaertn.[5].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : sphénoclée de Ceylan[6].
-Sphenoclea zeylanica a pour synonymes[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Sphenoclea zeylanica Gaertn..
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : sphénoclée de Ceylan.
+Sphenoclea zeylanica a pour synonymes :
 Gaertnera pangati Retz.
 Gaertnera pongati Retz.
 Pongatium indicum Lam.
